--- a/技能统计.xlsx
+++ b/技能统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\merc_sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C9B0E9-2754-4D2E-98D8-11DAA83548C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C468ECC-D525-4F2E-86C2-06986A41F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1455" windowWidth="20520" windowHeight="13290" xr2:uid="{59AF3AC3-702B-4207-89BD-320D101FD1A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59AF3AC3-702B-4207-89BD-320D101FD1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -4558,26 +4558,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。(3/6，元素）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。(6/10，元素）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。(10/14，元素）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。(11/15，元素）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。(12/16，元素）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你每有一个友方野兽就+1攻击力。随机攻击一个敌人。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5022,10 +5002,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随机对敌人发射三枚飞弹，每枚飞弹造成115点伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>造成2点伤害。使你的鱼人获得+1生命值。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5761,26 +5737,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嘲讽，在你施放一个暗影技能后，获得+1/+1。(4/7，恶魔）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，在你施放一个暗影技能后，获得+2/+2。(5/10，恶魔）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，在你施放一个暗影技能后，获得+3/+3。(6/13，恶魔）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，在你施放一个暗影技能后，获得+3/+4。(6/14，恶魔）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽，在你施放一个暗影技能后，获得+3/+5。(6/15，恶魔）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获得+1暗影伤害。敌人在本回合中无法治疗。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6421,6 +6377,40 @@
   <si>
     <t>Cenarion Surge</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机对敌人发射三枚飞弹，每枚飞弹造成15点伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。（3/6，元素）</t>
+  </si>
+  <si>
+    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。（6/10，元素）</t>
+  </si>
+  <si>
+    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。（10/14，元素）</t>
+  </si>
+  <si>
+    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。（11/15，元素）</t>
+  </si>
+  <si>
+    <t>嘲讽，每当它对一个角色造成伤害，冻结它们。（12/16，元素）</t>
+  </si>
+  <si>
+    <t>嘲讽，在你施放一个暗影技能后，获得+1/+1。（4/7，恶魔）</t>
+  </si>
+  <si>
+    <t>嘲讽，在你施放一个暗影技能后，获得+2/+2。（5/10，恶魔）</t>
+  </si>
+  <si>
+    <t>嘲讽，在你施放一个暗影技能后，获得+3/+3。（6/13，恶魔）</t>
+  </si>
+  <si>
+    <t>嘲讽，在你施放一个暗影技能后，获得+3/+4。（6/14，恶魔）</t>
+  </si>
+  <si>
+    <t>嘲讽，在你施放一个暗影技能后，获得+3/+5。（6/15，恶魔）</t>
   </si>
 </sst>
 </file>
@@ -6799,8 +6789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A965E743-992F-4C7D-91B3-215A7AF5B0C4}">
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6875,16 +6865,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
@@ -6902,34 +6892,34 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="72" x14ac:dyDescent="0.2">
@@ -7651,7 +7641,7 @@
         <v>221</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>385</v>
@@ -7710,7 +7700,7 @@
         <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>389</v>
@@ -7769,7 +7759,7 @@
         <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>378</v>
@@ -7946,7 +7936,7 @@
         <v>207</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -8359,7 +8349,7 @@
         <v>199</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>377</v>
@@ -8418,7 +8408,7 @@
         <v>196</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>391</v>
@@ -8536,7 +8526,7 @@
         <v>190</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>377</v>
@@ -8595,7 +8585,7 @@
         <v>184</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>400</v>
@@ -8713,7 +8703,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>401</v>
@@ -8890,7 +8880,7 @@
         <v>173</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>377</v>
@@ -9067,7 +9057,7 @@
         <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>403</v>
@@ -9126,7 +9116,7 @@
         <v>160</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>402</v>
@@ -9185,7 +9175,7 @@
         <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>391</v>
@@ -9244,7 +9234,7 @@
         <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>401</v>
@@ -9303,7 +9293,7 @@
         <v>155</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>385</v>
@@ -9362,7 +9352,7 @@
         <v>153</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>389</v>
@@ -9421,7 +9411,7 @@
         <v>1275</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>388</v>
@@ -9480,7 +9470,7 @@
         <v>1286</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>385</v>
@@ -9539,7 +9529,7 @@
         <v>1287</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>391</v>
@@ -9952,7 +9942,7 @@
         <v>150</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>385</v>
@@ -10011,7 +10001,7 @@
         <v>145</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>399</v>
@@ -10247,7 +10237,7 @@
         <v>137</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>378</v>
@@ -10265,19 +10255,19 @@
         <v>378</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1355</v>
+        <v>1824</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1356</v>
+        <v>1825</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1357</v>
+        <v>1826</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>1358</v>
+        <v>1827</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1359</v>
+        <v>1828</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>664</v>
@@ -10306,7 +10296,7 @@
         <v>136</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>403</v>
@@ -10365,7 +10355,7 @@
         <v>134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>385</v>
@@ -10383,7 +10373,7 @@
         <v>385</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>133</v>
@@ -10421,10 +10411,10 @@
         <v>334</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>378</v>
@@ -10442,19 +10432,19 @@
         <v>378</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>671</v>
@@ -10483,7 +10473,7 @@
         <v>129</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>388</v>
@@ -10501,19 +10491,19 @@
         <v>388</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>672</v>
@@ -10539,10 +10529,10 @@
         <v>337</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>390</v>
@@ -10560,19 +10550,19 @@
         <v>402</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>677</v>
@@ -10601,7 +10591,7 @@
         <v>127</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>391</v>
@@ -10619,19 +10609,19 @@
         <v>391</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>680</v>
@@ -10657,10 +10647,10 @@
         <v>340</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>393</v>
@@ -10678,19 +10668,19 @@
         <v>396</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>685</v>
@@ -10719,7 +10709,7 @@
         <v>126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>389</v>
@@ -10796,19 +10786,19 @@
         <v>399</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>689</v>
@@ -10855,19 +10845,19 @@
         <v>393</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>694</v>
@@ -10914,16 +10904,16 @@
         <v>385</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>122</v>
@@ -10952,10 +10942,10 @@
         <v>346</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>408</v>
@@ -10973,19 +10963,19 @@
         <v>408</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>704</v>
@@ -11014,7 +11004,7 @@
         <v>37</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>403</v>
@@ -11035,16 +11025,16 @@
         <v>36</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>705</v>
@@ -11070,7 +11060,7 @@
         <v>348</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>406</v>
@@ -11097,13 +11087,13 @@
         <v>34</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>710</v>
@@ -11185,10 +11175,10 @@
         <v>350</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>115</v>
@@ -11209,34 +11199,34 @@
         <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="60" x14ac:dyDescent="0.2">
@@ -11268,16 +11258,16 @@
         <v>399</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>119</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>118</v>
@@ -11309,7 +11299,7 @@
         <v>117</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>378</v>
@@ -11327,19 +11317,19 @@
         <v>378</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>721</v>
@@ -11362,10 +11352,10 @@
         <v>353</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>0</v>
@@ -11386,34 +11376,34 @@
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="36" x14ac:dyDescent="0.2">
@@ -11445,19 +11435,19 @@
         <v>378</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>723</v>
@@ -11483,7 +11473,7 @@
         <v>355</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>395</v>
@@ -11504,19 +11494,19 @@
         <v>408</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>728</v>
@@ -11545,7 +11535,7 @@
         <v>116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>393</v>
@@ -11563,16 +11553,16 @@
         <v>393</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>113</v>
@@ -11601,7 +11591,7 @@
         <v>358</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>404</v>
@@ -11622,19 +11612,19 @@
         <v>385</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>738</v>
@@ -11660,10 +11650,10 @@
         <v>359</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>402</v>
@@ -11681,19 +11671,19 @@
         <v>402</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>743</v>
@@ -11858,19 +11848,19 @@
         <v>379</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>1471</v>
+        <v>1823</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>756</v>
@@ -11917,16 +11907,16 @@
         <v>385</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>97</v>
@@ -11976,19 +11966,19 @@
         <v>387</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>766</v>
@@ -12014,7 +12004,7 @@
         <v>367</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>395</v>
@@ -12035,19 +12025,19 @@
         <v>378</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>771</v>
@@ -12073,10 +12063,10 @@
         <v>369</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>403</v>
@@ -12094,19 +12084,19 @@
         <v>393</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>776</v>
@@ -12132,10 +12122,10 @@
         <v>370</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>396</v>
@@ -12153,19 +12143,19 @@
         <v>400</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>777</v>
@@ -12194,7 +12184,7 @@
         <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>382</v>
@@ -12212,10 +12202,10 @@
         <v>398</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>94</v>
@@ -12250,7 +12240,7 @@
         <v>373</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>406</v>
@@ -12271,19 +12261,19 @@
         <v>385</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>783</v>
@@ -12309,7 +12299,7 @@
         <v>374</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>384</v>
@@ -12330,19 +12320,19 @@
         <v>409</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>788</v>
@@ -12389,19 +12379,19 @@
         <v>399</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>793</v>
@@ -12448,34 +12438,34 @@
         <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="48" x14ac:dyDescent="0.2">
@@ -12489,7 +12479,7 @@
         <v>88</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>393</v>
@@ -12507,16 +12497,16 @@
         <v>393</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>87</v>
@@ -12548,7 +12538,7 @@
         <v>86</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>390</v>
@@ -12566,19 +12556,19 @@
         <v>390</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>803</v>
@@ -12607,7 +12597,7 @@
         <v>85</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>378</v>
@@ -12625,19 +12615,19 @@
         <v>378</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>671</v>
@@ -12684,19 +12674,19 @@
         <v>388</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>808</v>
@@ -12743,19 +12733,19 @@
         <v>399</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>83</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>813</v>
@@ -12778,58 +12768,58 @@
         <v>1047</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1827</v>
+        <v>1816</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="48" x14ac:dyDescent="0.2">
@@ -12861,19 +12851,19 @@
         <v>393</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>81</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>818</v>
@@ -12899,7 +12889,7 @@
         <v>1052</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>376</v>
@@ -12920,19 +12910,19 @@
         <v>405</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>823</v>
@@ -12979,19 +12969,19 @@
         <v>380</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>828</v>
@@ -13020,7 +13010,7 @@
         <v>79</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>385</v>
@@ -13038,16 +13028,16 @@
         <v>385</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>77</v>
@@ -13076,10 +13066,10 @@
         <v>1056</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>399</v>
@@ -13097,19 +13087,19 @@
         <v>399</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>838</v>
@@ -13135,7 +13125,7 @@
         <v>1057</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>404</v>
@@ -13156,19 +13146,19 @@
         <v>378</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>839</v>
@@ -13197,7 +13187,7 @@
         <v>76</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>388</v>
@@ -13215,19 +13205,19 @@
         <v>388</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>844</v>
@@ -13256,7 +13246,7 @@
         <v>75</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>390</v>
@@ -13274,19 +13264,19 @@
         <v>390</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>849</v>
@@ -13333,19 +13323,19 @@
         <v>378</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>850</v>
@@ -13374,7 +13364,7 @@
         <v>73</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>388</v>
@@ -13395,7 +13385,7 @@
         <v>72</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>71</v>
@@ -13404,7 +13394,7 @@
         <v>70</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>855</v>
@@ -13433,7 +13423,7 @@
         <v>69</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>402</v>
@@ -13454,16 +13444,16 @@
         <v>68</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>860</v>
@@ -13486,58 +13476,58 @@
         <v>1062</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N114" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="O114" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="P114" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="K114" s="1" t="s">
+      <c r="Q114" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="R114" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="S114" s="1" t="s">
         <v>1612</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="S114" s="1" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="48" x14ac:dyDescent="0.2">
@@ -13548,10 +13538,10 @@
         <v>1066</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>377</v>
@@ -13569,19 +13559,19 @@
         <v>377</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>865</v>
@@ -13610,7 +13600,7 @@
         <v>67</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>391</v>
@@ -13628,19 +13618,19 @@
         <v>391</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>66</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>870</v>
@@ -13663,58 +13653,58 @@
         <v>1065</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="N117" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="O117" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J117" s="1" t="s">
+      <c r="P117" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="Q117" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="R117" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="S117" s="1" t="s">
         <v>1634</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="R117" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="S117" s="1" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="48" x14ac:dyDescent="0.2">
@@ -13728,7 +13718,7 @@
         <v>65</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>385</v>
@@ -13746,19 +13736,19 @@
         <v>385</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>875</v>
@@ -13787,7 +13777,7 @@
         <v>64</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>389</v>
@@ -13805,19 +13795,19 @@
         <v>389</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>880</v>
@@ -13840,58 +13830,58 @@
         <v>1068</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="36" x14ac:dyDescent="0.2">
@@ -14100,7 +14090,7 @@
         <v>393</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>1146</v>
@@ -14138,10 +14128,10 @@
         <v>1077</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>390</v>
@@ -14159,19 +14149,19 @@
         <v>390</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>1659</v>
+        <v>1829</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1660</v>
+        <v>1830</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>1661</v>
+        <v>1831</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1662</v>
+        <v>1832</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1663</v>
+        <v>1833</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>891</v>
@@ -14218,19 +14208,19 @@
         <v>402</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>896</v>
@@ -14259,7 +14249,7 @@
         <v>43</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>388</v>
@@ -14277,16 +14267,16 @@
         <v>388</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>42</v>
@@ -14336,10 +14326,10 @@
         <v>402</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>40</v>
@@ -14348,7 +14338,7 @@
         <v>39</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>906</v>
@@ -14377,7 +14367,7 @@
         <v>38</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>402</v>
@@ -14395,19 +14385,19 @@
         <v>402</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>911</v>
@@ -14433,10 +14423,10 @@
         <v>1084</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>393</v>
@@ -14454,19 +14444,19 @@
         <v>393</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>916</v>
@@ -14513,16 +14503,16 @@
         <v>377</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>30</v>
@@ -14551,7 +14541,7 @@
         <v>1086</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>395</v>
@@ -14572,19 +14562,19 @@
         <v>408</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>924</v>
@@ -14613,7 +14603,7 @@
         <v>29</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>403</v>
@@ -14631,19 +14621,19 @@
         <v>388</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>929</v>
@@ -14690,19 +14680,19 @@
         <v>390</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>932</v>
@@ -14725,58 +14715,58 @@
         <v>1087</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="136" spans="1:19" ht="24" x14ac:dyDescent="0.2">
@@ -14811,16 +14801,16 @@
         <v>26</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1713</v>
+        <v>1702</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1714</v>
+        <v>1703</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>937</v>
@@ -14873,10 +14863,10 @@
         <v>23</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>22</v>
@@ -14926,19 +14916,19 @@
         <v>390</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1718</v>
+        <v>1707</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>947</v>
@@ -14964,7 +14954,7 @@
         <v>1095</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1721</v>
+        <v>1710</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>384</v>
@@ -14985,19 +14975,19 @@
         <v>396</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>950</v>
@@ -15023,7 +15013,7 @@
         <v>1096</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>384</v>
@@ -15044,19 +15034,19 @@
         <v>393</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>955</v>
@@ -15103,19 +15093,19 @@
         <v>408</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>960</v>
@@ -15144,7 +15134,7 @@
         <v>18</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>385</v>
@@ -15162,19 +15152,19 @@
         <v>385</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>965</v>
@@ -15203,7 +15193,7 @@
         <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>378</v>
@@ -15221,19 +15211,19 @@
         <v>378</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>970</v>
@@ -15262,7 +15252,7 @@
         <v>16</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>387</v>
@@ -15280,16 +15270,16 @@
         <v>387</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>15</v>
@@ -15339,19 +15329,19 @@
         <v>393</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>980</v>
@@ -15377,7 +15367,7 @@
         <v>1101</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>407</v>
@@ -15398,19 +15388,19 @@
         <v>399</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>138</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>985</v>
@@ -15457,19 +15447,19 @@
         <v>378</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>990</v>
@@ -15495,10 +15485,10 @@
         <v>1104</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>377</v>
@@ -15516,19 +15506,19 @@
         <v>377</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>995</v>
@@ -15554,10 +15544,10 @@
         <v>1105</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>390</v>
@@ -15575,19 +15565,19 @@
         <v>390</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>1000</v>
@@ -15610,58 +15600,58 @@
         <v>1103</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="60" x14ac:dyDescent="0.2">
@@ -15672,7 +15662,7 @@
         <v>1106</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>406</v>
@@ -15693,19 +15683,19 @@
         <v>377</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>1005</v>
@@ -15752,19 +15742,19 @@
         <v>378</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1819</v>
+        <v>1808</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>1821</v>
+        <v>1810</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>1010</v>
@@ -15811,16 +15801,16 @@
         <v>391</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>1823</v>
+        <v>1812</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>61</v>
@@ -15852,7 +15842,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>385</v>
@@ -15870,19 +15860,19 @@
         <v>385</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>1020</v>
@@ -15929,19 +15919,19 @@
         <v>399</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>1025</v>
@@ -15970,7 +15960,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>387</v>
@@ -15988,19 +15978,19 @@
         <v>387</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>1763</v>
+        <v>1752</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>1030</v>
@@ -16050,16 +16040,16 @@
         <v>7</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>1031</v>
@@ -16109,16 +16099,16 @@
         <v>5</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>1036</v>
@@ -16144,7 +16134,7 @@
         <v>4</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>384</v>
@@ -16165,19 +16155,19 @@
         <v>389</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>1041</v>
